--- a/excel/334.xlsx
+++ b/excel/334.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166DC6F5-3015-4635-A5E3-5841EC66EB9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042B9BC7-D635-40C8-87F0-D20B682D52C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="respnse and behavior" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="analysis on behavior" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="66">
   <si>
     <t>Average</t>
   </si>
@@ -185,6 +185,45 @@
   </si>
   <si>
     <t>People have the high average score has lower Intension and Attitude than the people who get lowest average score from both surveys</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>Sample Variance</t>
+  </si>
+  <si>
+    <t>Kurtosis</t>
+  </si>
+  <si>
+    <t>Skewness</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Count</t>
   </si>
 </sst>
 </file>
@@ -193,9 +232,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000000000000"/>
-    <numFmt numFmtId="166" formatCode="#,##0.000000000000000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000000000000000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,6 +292,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -262,12 +309,32 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -276,7 +343,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -296,16 +363,23 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -317,13 +391,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -608,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:G34"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,31 +799,31 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -763,34 +835,34 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="4">
         <f>C2-B2</f>
         <v>0.40604672584814899</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
       <c r="E12" s="4">
         <f t="shared" ref="E12:E14" si="0">C3-B3</f>
         <v>-0.16012635749259202</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
       <c r="E13" s="4">
         <f t="shared" si="0"/>
         <v>5.6058643362962957E-2</v>
@@ -819,33 +891,33 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
       <c r="E17" s="4">
         <f>E3-B3</f>
         <v>5.6795732507407992E-2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
       <c r="E18" s="4">
         <f>E4-B4</f>
         <v>0.10780086036296299</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
       <c r="E19" s="4">
         <f>E5-B5</f>
         <v>-0.18181814688518494</v>
@@ -861,22 +933,22 @@
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
       <c r="E22" s="4">
         <f>F2-B2</f>
         <v>0.28977367937004611</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
       <c r="E23" s="4">
         <f>F3-B3</f>
         <v>3.4110256465758049E-2</v>
@@ -1011,34 +1083,34 @@
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
@@ -1083,11 +1155,11 @@
       <c r="E43" s="4"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="20" t="s">
+      <c r="A45" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -1098,53 +1170,53 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
       <c r="D47" s="8"/>
-      <c r="F47" s="10" t="s">
+      <c r="F47" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
     </row>
     <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
       <c r="D48" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F48" s="9" t="s">
+      <c r="F48" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
       <c r="J48" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B49" s="12"/>
+      <c r="B49" s="14"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="18" t="s">
+      <c r="A50" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="19"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="11"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
@@ -1164,10 +1236,10 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B53" s="15"/>
+      <c r="B53" s="20"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="F53" s="7" t="s">
@@ -1176,21 +1248,21 @@
       <c r="G53" s="7"/>
     </row>
     <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="13" t="s">
+      <c r="A54" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
       <c r="E54" t="s">
         <v>45</v>
       </c>
-      <c r="F54" s="11" t="s">
+      <c r="F54" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
     </row>
     <row r="55" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F55" t="s">
@@ -1198,32 +1270,32 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
     </row>
     <row r="58" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -1237,6 +1309,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A48:C48"/>
     <mergeCell ref="A8:O8"/>
     <mergeCell ref="A33:F33"/>
     <mergeCell ref="A34:G34"/>
@@ -1253,14 +1333,6 @@
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A49:B49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1269,10 +1341,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC1D3DC-7113-41DC-B3CD-A90F7AABE504}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1281,9 +1353,15 @@
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="23.140625" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1"/>
+    <col min="12" max="12" width="18" customWidth="1"/>
+    <col min="15" max="16" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1297,385 +1375,722 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
         <v>0.113202875986385</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="9">
         <v>0.67199165258092075</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="9">
         <v>0.57099366951183583</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="9">
         <v>0.74922330349832489</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
+      <c r="F2" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="23"/>
+      <c r="I2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="23"/>
+      <c r="L2" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="23"/>
+      <c r="O2" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="23"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
         <v>0.75655427552189713</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="9">
         <v>0.68796095895835008</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="9">
         <v>0.8552706629604917</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="9">
         <v>0.80686562041977528</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
         <v>0.10815032975367149</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="9">
         <v>0.66912065507118512</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="9">
         <v>0.51816831975856181</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="9">
         <v>0.58417704811946203</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
+      <c r="F4" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="21">
+        <v>0.46678059614710654</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="21">
+        <v>0.65283363635553138</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" s="21">
+        <v>0.66097363163177913</v>
+      </c>
+      <c r="O4" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" s="21">
+        <v>0.74769238888979972</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
         <v>0.39292758072668349</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="9">
         <v>0.71047695941659106</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="9">
         <v>0.63007643833422922</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="9">
         <v>0.81709633840392459</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+      <c r="F5" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="21">
+        <v>4.8451044728057294E-2</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="21">
+        <v>3.0734134996045805E-2</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" s="21">
+        <v>2.4886024076253597E-2</v>
+      </c>
+      <c r="O5" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="P5" s="21">
+        <v>2.9457566205507095E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
         <v>0.8728273218860676</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="9">
         <v>0.49372434482636224</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="9">
         <v>0.71703227453553786</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="9">
         <v>0.97953640659299779</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
+      <c r="F6" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="21">
+        <v>0.41014469899126427</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="21">
+        <v>0.67123416743161635</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6" s="21">
+        <v>0.68756953585844827</v>
+      </c>
+      <c r="O6" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="P6" s="21">
+        <v>0.74922330349832489</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
         <v>0.94712696782669459</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="9">
         <v>0.61658953283576567</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="9">
         <v>0.89694804930767791</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="9">
         <v>0.92114995900220176</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+      <c r="F7" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="M7" s="21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O7" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="P7" s="21" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
         <v>0.85233227916380516</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="9">
         <v>0.75229595384083126</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="9">
         <v>0.76572184685484934</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="9">
         <v>0.86543702195855554</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+      <c r="F8" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="21">
+        <v>0.25175901344636231</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="21">
+        <v>0.15969925001949609</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="M8" s="21">
+        <v>0.12931157429536069</v>
+      </c>
+      <c r="O8" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="P8" s="21">
+        <v>0.15306600400578671</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
         <v>0.57443002608964677</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="9">
         <v>0.47409950360499015</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="9">
         <v>0.7599060266343326</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="9">
         <v>0.99058674703277882</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
+      <c r="F9" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="21">
+        <v>6.3382600851485629E-2</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="21">
+        <v>2.5503850456789524E-2</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="M9" s="21">
+        <v>1.6721483246744589E-2</v>
+      </c>
+      <c r="O9" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="P9" s="21">
+        <v>2.3429201582299511E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
         <v>0.26831178276424777</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="9">
         <v>0.8177343728231149</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="9">
         <v>0.70572073400260082</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="9">
         <v>0.80958169736288654</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
+      <c r="F10" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="21">
+        <v>-0.90550819231992019</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="21">
+        <v>-0.60799944978054254</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="M10" s="21">
+        <v>-0.89319736479795786</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="P10" s="21">
+        <v>6.2865126395920345E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
         <v>0.58470229505561655</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="9">
         <v>0.84503059050339679</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="9">
         <v>0.84503059050339679</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="9">
         <v>0.82022168721517585</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
+      <c r="F11" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="21">
+        <v>0.36430783784203435</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" s="21">
+        <v>-0.43195322787966145</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M11" s="21">
+        <v>-4.4722031282529183E-2</v>
+      </c>
+      <c r="O11" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" s="21">
+        <v>-0.34635111472031227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
         <v>0.57793003111904317</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="9">
         <v>0.86324989807831098</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="9">
         <v>0.81865903568442988</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="9">
         <v>0.97737842765189564</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
+      <c r="F12" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="21">
+        <v>0.83897663807302314</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="21">
+        <v>0.58018255389776119</v>
+      </c>
+      <c r="L12" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="M12" s="21">
+        <v>0.48652724537267539</v>
+      </c>
+      <c r="O12" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" s="21">
+        <v>0.61062881690035797</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
         <v>0.51719376228570091</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="9">
         <v>0.79569794251659387</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="9">
         <v>0.68756953585844827</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="9">
         <v>0.48257905873002499</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
+      <c r="F13" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="21">
+        <v>0.10815032975367149</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" s="21">
+        <v>0.33274598854767518</v>
+      </c>
+      <c r="L13" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="M13" s="21">
+        <v>0.41042080393500252</v>
+      </c>
+      <c r="O13" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="P13" s="21">
+        <v>0.3799579301324208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
         <v>0.30298967744196542</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="9">
         <v>0.81197393930018702</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="9">
         <v>0.72927360336359615</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="9">
         <v>0.75904582833368595</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="17">
+      <c r="F14" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="21">
+        <v>0.94712696782669459</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" s="21">
+        <v>0.91292854244543642</v>
+      </c>
+      <c r="L14" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="M14" s="21">
+        <v>0.89694804930767791</v>
+      </c>
+      <c r="O14" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14" s="21">
+        <v>0.99058674703277882</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
         <v>0.55059507787361783</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="9">
         <v>0.64861208138037352</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="9">
         <v>0.71311396176561548</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="9">
         <v>0.8050052937464115</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
+      <c r="F15" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="21">
+        <v>12.603076095971877</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15" s="21">
+        <v>17.626508181599348</v>
+      </c>
+      <c r="L15" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="M15" s="21">
+        <v>17.846288054058036</v>
+      </c>
+      <c r="O15" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="P15" s="21">
+        <v>20.187694500024591</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
         <v>0.46082205027456064</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="9">
         <v>0.63276351310027612</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="9">
         <v>0.64710185519179564</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="9">
         <v>0.96677456561372177</v>
       </c>
+      <c r="F16" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="22">
+        <v>27</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="J16" s="22">
+        <v>27</v>
+      </c>
+      <c r="L16" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="M16" s="22">
+        <v>27</v>
+      </c>
+      <c r="O16" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="P16" s="22">
+        <v>27</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="17">
+      <c r="A17" s="9">
         <v>0.32665035478190169</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="9">
         <v>0.55258796830559731</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="9">
         <v>0.58288744602826537</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="9">
         <v>0.70057960781346118</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="17">
+      <c r="A18" s="9">
         <v>0.41014469899126427</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="9">
         <v>0.39364171308245349</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="9">
         <v>0.50678199206095897</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="9">
         <v>0.74449807374798072</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="17">
+      <c r="A19" s="9">
         <v>0.115696733029697</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="9">
         <v>0.67123416743161635</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="9">
         <v>0.5515022534798234</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="9">
         <v>0.56892517796431064</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="17">
+      <c r="A20" s="9">
         <v>0.34683672609789706</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="9">
         <v>0.33274598854767518</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="9">
         <v>0.5112254192379081</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="9">
         <v>0.74542823708466255</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="17">
+      <c r="A21" s="9">
         <v>0.28775030395590145</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="9">
         <v>0.83439745541196952</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="9">
         <v>0.58921397786194141</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="9">
         <v>0.63865853954327412</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="17">
+      <c r="A22" s="9">
         <v>0.24613580151878053</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="9">
         <v>0.35501485561604368</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="9">
         <v>0.46242016795105156</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="9">
         <v>0.76113784146666463</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="17">
+      <c r="A23" s="9">
         <v>0.35642455920489685</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="9">
         <v>0.46173579421301308</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="9">
         <v>0.54304735288918693</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="9">
         <v>0.64368142156135655</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="17">
+      <c r="A24" s="9">
         <v>0.86317053881579342</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="9">
         <v>0.75343270903505433</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="9">
         <v>0.77405685626132248</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="9">
         <v>0.68028884413173885</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="17">
+      <c r="A25" s="9">
         <v>0.25446913463240195</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="9">
         <v>0.91292854244543642</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="9">
         <v>0.57813198134098365</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="9">
         <v>0.3799579301324208</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="17">
+      <c r="A26" s="9">
         <v>0.6379162792534161</v>
       </c>
-      <c r="B26" s="17">
+      <c r="B26" s="9">
         <v>0.71064643471596556</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="9">
         <v>0.76877449213174598</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="9">
         <v>0.56587424221999394</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="17">
+      <c r="A27" s="9">
         <v>0.72219310562899397</v>
       </c>
-      <c r="B27" s="17">
+      <c r="B27" s="9">
         <v>0.62577072593143324</v>
       </c>
-      <c r="C27" s="17">
+      <c r="C27" s="9">
         <v>0.70723870661244159</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="9">
         <v>0.73847061532628189</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="17">
+      <c r="A28" s="9">
         <v>0.15559152629133033</v>
       </c>
-      <c r="B28" s="17">
+      <c r="B28" s="9">
         <v>0.53104992802583995</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="9">
         <v>0.41042080393500252</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D28" s="9">
         <v>0.68553496535062486</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/excel/334.xlsx
+++ b/excel/334.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042B9BC7-D635-40C8-87F0-D20B682D52C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B10841-AE97-4457-A6D2-785C33B0C9D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="respnse and behavior" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="72">
   <si>
     <t>Average</t>
   </si>
@@ -172,9 +172,6 @@
     <t>I personally believe the two question with highest average score is conerned about the ownership, or the combination of the ownership and attitdue.</t>
   </si>
   <si>
-    <t xml:space="preserve">Such that, </t>
-  </si>
-  <si>
     <t>difference</t>
   </si>
   <si>
@@ -224,6 +221,27 @@
   </si>
   <si>
     <t>Count</t>
+  </si>
+  <si>
+    <t>How often have you checked your feet for minor bruises, injuries, and ingrown toenails?</t>
+  </si>
+  <si>
+    <t>The answer from this question is much lower than the higest one, but still has the place to take for being the 2nd highest</t>
+  </si>
+  <si>
+    <t>How often have you carried medical supplies for self-care when you are out of the home?</t>
+  </si>
+  <si>
+    <t>2nd highest average score on Q10</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>These two question have very close average score</t>
+  </si>
+  <si>
+    <t>I do believe those two questions are about ownership for people taking action to do with it</t>
   </si>
 </sst>
 </file>
@@ -234,7 +252,7 @@
     <numFmt numFmtId="164" formatCode="0.000000000000000"/>
     <numFmt numFmtId="165" formatCode="#,##0.000000000000000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,6 +311,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,20 +326,40 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -338,12 +383,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -392,15 +438,22 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Note" xfId="3" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -678,10 +731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O63"/>
+  <dimension ref="A1:O73"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66:B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,7 +770,7 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="25">
         <v>0.46678059615185102</v>
       </c>
       <c r="C2" s="3">
@@ -737,7 +790,7 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="25">
         <v>0.65385070249259203</v>
       </c>
       <c r="C3" s="3">
@@ -757,7 +810,7 @@
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="25">
         <v>0.66097363163703704</v>
       </c>
       <c r="C4" s="3">
@@ -777,7 +830,7 @@
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="25">
         <v>0.74769238888518497</v>
       </c>
       <c r="C5" s="3">
@@ -845,6 +898,9 @@
         <f>C2-B2</f>
         <v>0.40604672584814899</v>
       </c>
+      <c r="F11" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
@@ -856,6 +912,9 @@
         <f t="shared" ref="E12:E14" si="0">C3-B3</f>
         <v>-0.16012635749259202</v>
       </c>
+      <c r="F12" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
@@ -867,6 +926,9 @@
         <f t="shared" si="0"/>
         <v>5.6058643362962957E-2</v>
       </c>
+      <c r="F13" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -877,6 +939,9 @@
         <f t="shared" si="0"/>
         <v>0.23184401811481503</v>
       </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E15" s="3"/>
@@ -888,6 +953,9 @@
       <c r="E16" s="4">
         <f>E2-B2</f>
         <v>0.17113568284814901</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -900,6 +968,9 @@
         <f>E3-B3</f>
         <v>5.6795732507407992E-2</v>
       </c>
+      <c r="F17" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
@@ -911,6 +982,9 @@
         <f>E4-B4</f>
         <v>0.10780086036296299</v>
       </c>
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
@@ -922,6 +996,9 @@
         <f>E5-B5</f>
         <v>-0.18181814688518494</v>
       </c>
+      <c r="F19" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
@@ -942,6 +1019,9 @@
         <f>F2-B2</f>
         <v>0.28977367937004611</v>
       </c>
+      <c r="F22" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
@@ -953,18 +1033,27 @@
         <f>F3-B3</f>
         <v>3.4110256465758049E-2</v>
       </c>
+      <c r="F23" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E24" s="4">
         <f>F4-B4</f>
         <v>0.19429703132345466</v>
       </c>
+      <c r="F24" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E25" s="4">
         <f>F5-B5</f>
         <v>5.9173231534590309E-2</v>
       </c>
+      <c r="F25" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E26" s="4"/>
@@ -977,7 +1066,7 @@
         <v>8</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>5</v>
@@ -986,7 +1075,7 @@
         <v>6</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1084,7 +1173,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -1094,7 +1183,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -1105,7 +1194,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -1302,16 +1391,71 @@
         <v>47</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>48</v>
-      </c>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" s="13"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" s="24"/>
+      <c r="C67" s="11"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" s="13"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68">
+        <v>2.8889</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F70">
+        <v>2.722</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="27">
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A73:E73"/>
     <mergeCell ref="A53:B53"/>
     <mergeCell ref="A54:D54"/>
     <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A66:B66"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A19:C19"/>
@@ -1343,8 +1487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC1D3DC-7113-41DC-B3CD-A90F7AABE504}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1353,12 +1497,13 @@
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="23.140625" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
     <col min="10" max="10" width="12.5703125" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
-    <col min="15" max="16" width="16.85546875" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1441,25 +1586,25 @@
         <v>0.58417704811946203</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G4" s="21">
         <v>0.46678059614710654</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J4" s="21">
         <v>0.65283363635553138</v>
       </c>
       <c r="L4" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M4" s="21">
         <v>0.66097363163177913</v>
       </c>
       <c r="O4" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P4" s="21">
         <v>0.74769238888979972</v>
@@ -1479,25 +1624,25 @@
         <v>0.81709633840392459</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G5" s="21">
         <v>4.8451044728057294E-2</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J5" s="21">
         <v>3.0734134996045805E-2</v>
       </c>
       <c r="L5" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M5" s="21">
         <v>2.4886024076253597E-2</v>
       </c>
       <c r="O5" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P5" s="21">
         <v>2.9457566205507095E-2</v>
@@ -1517,25 +1662,25 @@
         <v>0.97953640659299779</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G6" s="21">
         <v>0.41014469899126427</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J6" s="21">
         <v>0.67123416743161635</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M6" s="21">
         <v>0.68756953585844827</v>
       </c>
       <c r="O6" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P6" s="21">
         <v>0.74922330349832489</v>
@@ -1555,25 +1700,25 @@
         <v>0.92114995900220176</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G7" s="21" t="e">
         <v>#N/A</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J7" s="21" t="e">
         <v>#N/A</v>
       </c>
       <c r="L7" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M7" s="21" t="e">
         <v>#N/A</v>
       </c>
       <c r="O7" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P7" s="21" t="e">
         <v>#N/A</v>
@@ -1593,25 +1738,25 @@
         <v>0.86543702195855554</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G8" s="21">
         <v>0.25175901344636231</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J8" s="21">
         <v>0.15969925001949609</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M8" s="21">
         <v>0.12931157429536069</v>
       </c>
       <c r="O8" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P8" s="21">
         <v>0.15306600400578671</v>
@@ -1631,25 +1776,25 @@
         <v>0.99058674703277882</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G9" s="21">
         <v>6.3382600851485629E-2</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J9" s="21">
         <v>2.5503850456789524E-2</v>
       </c>
       <c r="L9" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M9" s="21">
         <v>1.6721483246744589E-2</v>
       </c>
       <c r="O9" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P9" s="21">
         <v>2.3429201582299511E-2</v>
@@ -1669,25 +1814,25 @@
         <v>0.80958169736288654</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G10" s="21">
         <v>-0.90550819231992019</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J10" s="21">
         <v>-0.60799944978054254</v>
       </c>
       <c r="L10" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M10" s="21">
         <v>-0.89319736479795786</v>
       </c>
       <c r="O10" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P10" s="21">
         <v>6.2865126395920345E-2</v>
@@ -1707,25 +1852,25 @@
         <v>0.82022168721517585</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G11" s="21">
         <v>0.36430783784203435</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J11" s="21">
         <v>-0.43195322787966145</v>
       </c>
       <c r="L11" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M11" s="21">
         <v>-4.4722031282529183E-2</v>
       </c>
       <c r="O11" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P11" s="21">
         <v>-0.34635111472031227</v>
@@ -1745,25 +1890,25 @@
         <v>0.97737842765189564</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G12" s="21">
         <v>0.83897663807302314</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J12" s="21">
         <v>0.58018255389776119</v>
       </c>
       <c r="L12" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M12" s="21">
         <v>0.48652724537267539</v>
       </c>
       <c r="O12" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P12" s="21">
         <v>0.61062881690035797</v>
@@ -1783,25 +1928,25 @@
         <v>0.48257905873002499</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G13" s="21">
         <v>0.10815032975367149</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J13" s="21">
         <v>0.33274598854767518</v>
       </c>
       <c r="L13" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M13" s="21">
         <v>0.41042080393500252</v>
       </c>
       <c r="O13" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P13" s="21">
         <v>0.3799579301324208</v>
@@ -1821,25 +1966,25 @@
         <v>0.75904582833368595</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G14" s="21">
         <v>0.94712696782669459</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J14" s="21">
         <v>0.91292854244543642</v>
       </c>
       <c r="L14" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M14" s="21">
         <v>0.89694804930767791</v>
       </c>
       <c r="O14" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P14" s="21">
         <v>0.99058674703277882</v>
@@ -1859,25 +2004,25 @@
         <v>0.8050052937464115</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G15" s="21">
         <v>12.603076095971877</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J15" s="21">
         <v>17.626508181599348</v>
       </c>
       <c r="L15" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M15" s="21">
         <v>17.846288054058036</v>
       </c>
       <c r="O15" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P15" s="21">
         <v>20.187694500024591</v>
@@ -1897,25 +2042,25 @@
         <v>0.96677456561372177</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G16" s="22">
         <v>27</v>
       </c>
       <c r="I16" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J16" s="22">
         <v>27</v>
       </c>
       <c r="L16" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M16" s="22">
         <v>27</v>
       </c>
       <c r="O16" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P16" s="22">
         <v>27</v>
